--- a/Streaming graphs/hip_hop_Adjectives_stream_me.xlsx
+++ b/Streaming graphs/hip_hop_Adjectives_stream_me.xlsx
@@ -1418,7 +1418,7 @@
         <v>2003</v>
       </c>
       <c r="C48" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -1438,16 +1438,16 @@
         <v>2003</v>
       </c>
       <c r="C49" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E49">
         <v>1278</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>0.1564945226917058</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1458,16 +1458,16 @@
         <v>2003</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50">
         <v>1278</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>0.0782472613458529</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1478,7 +1478,7 @@
         <v>2003</v>
       </c>
       <c r="C51" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -1498,7 +1498,7 @@
         <v>2003</v>
       </c>
       <c r="C52" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -1518,7 +1518,7 @@
         <v>2003</v>
       </c>
       <c r="C53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>2003</v>
       </c>
       <c r="C54" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -1998,16 +1998,16 @@
         <v>2004</v>
       </c>
       <c r="C77" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77">
         <v>1386</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>0.07215007215007214</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2018,7 +2018,7 @@
         <v>2004</v>
       </c>
       <c r="C78" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -3101,13 +3101,13 @@
         <v>26</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E132">
         <v>1240</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>0.08064516129032258</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3118,16 +3118,16 @@
         <v>2007</v>
       </c>
       <c r="C133" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E133">
         <v>1240</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>0.08064516129032258</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3138,7 +3138,7 @@
         <v>2007</v>
       </c>
       <c r="C134" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>2007</v>
       </c>
       <c r="C135" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -3178,7 +3178,7 @@
         <v>2007</v>
       </c>
       <c r="C136" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D136">
         <v>0</v>
@@ -3658,16 +3658,16 @@
         <v>2008</v>
       </c>
       <c r="C160" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E160">
         <v>1127</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>0.08873114463176575</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3678,7 +3678,7 @@
         <v>2008</v>
       </c>
       <c r="C161" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D161">
         <v>0</v>
@@ -4178,16 +4178,16 @@
         <v>2009</v>
       </c>
       <c r="C186" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E186">
         <v>1001</v>
       </c>
       <c r="F186">
-        <v>0</v>
+        <v>0.0999000999000999</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4198,16 +4198,16 @@
         <v>2009</v>
       </c>
       <c r="C187" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E187">
         <v>1001</v>
       </c>
       <c r="F187">
-        <v>0</v>
+        <v>0.0999000999000999</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4218,7 +4218,7 @@
         <v>2009</v>
       </c>
       <c r="C188" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D188">
         <v>0</v>
@@ -4238,7 +4238,7 @@
         <v>2009</v>
       </c>
       <c r="C189" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D189">
         <v>0</v>
@@ -4258,7 +4258,7 @@
         <v>2009</v>
       </c>
       <c r="C190" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D190">
         <v>0</v>
@@ -4698,16 +4698,16 @@
         <v>2010</v>
       </c>
       <c r="C212" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E212">
         <v>1148</v>
       </c>
       <c r="F212">
-        <v>0</v>
+        <v>0.08710801393728224</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4718,7 +4718,7 @@
         <v>2010</v>
       </c>
       <c r="C213" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D213">
         <v>0</v>
@@ -4738,7 +4738,7 @@
         <v>2010</v>
       </c>
       <c r="C214" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D214">
         <v>0</v>
@@ -5258,16 +5258,16 @@
         <v>2011</v>
       </c>
       <c r="C240" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E240">
         <v>1154</v>
       </c>
       <c r="F240">
-        <v>0</v>
+        <v>0.08665511265164645</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5278,7 +5278,7 @@
         <v>2011</v>
       </c>
       <c r="C241" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D241">
         <v>0</v>
@@ -5298,7 +5298,7 @@
         <v>2011</v>
       </c>
       <c r="C242" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D242">
         <v>0</v>
@@ -5318,7 +5318,7 @@
         <v>2011</v>
       </c>
       <c r="C243" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D243">
         <v>0</v>
@@ -6298,16 +6298,16 @@
         <v>2013</v>
       </c>
       <c r="C292" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D292">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E292">
         <v>1449</v>
       </c>
       <c r="F292">
-        <v>0</v>
+        <v>0.06901311249137336</v>
       </c>
     </row>
     <row r="293" spans="1:6">
@@ -6318,16 +6318,16 @@
         <v>2013</v>
       </c>
       <c r="C293" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D293">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E293">
         <v>1449</v>
       </c>
       <c r="F293">
-        <v>0</v>
+        <v>0.06901311249137336</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -6338,7 +6338,7 @@
         <v>2013</v>
       </c>
       <c r="C294" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D294">
         <v>0</v>
@@ -6858,16 +6858,16 @@
         <v>2014</v>
       </c>
       <c r="C320" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D320">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E320">
         <v>1271</v>
       </c>
       <c r="F320">
-        <v>0</v>
+        <v>0.1573564122738002</v>
       </c>
     </row>
     <row r="321" spans="1:6">
@@ -6878,16 +6878,16 @@
         <v>2014</v>
       </c>
       <c r="C321" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D321">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E321">
         <v>1271</v>
       </c>
       <c r="F321">
-        <v>0</v>
+        <v>0.07867820613690008</v>
       </c>
     </row>
     <row r="322" spans="1:6">
@@ -6898,7 +6898,7 @@
         <v>2014</v>
       </c>
       <c r="C322" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D322">
         <v>0</v>
@@ -6918,7 +6918,7 @@
         <v>2014</v>
       </c>
       <c r="C323" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D323">
         <v>0</v>
@@ -6938,7 +6938,7 @@
         <v>2014</v>
       </c>
       <c r="C324" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D324">
         <v>0</v>
@@ -6958,7 +6958,7 @@
         <v>2014</v>
       </c>
       <c r="C325" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D325">
         <v>0</v>
@@ -8458,7 +8458,7 @@
         <v>2017</v>
       </c>
       <c r="C400" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D400">
         <v>2</v>
@@ -8478,16 +8478,16 @@
         <v>2017</v>
       </c>
       <c r="C401" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D401">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E401">
         <v>1237</v>
       </c>
       <c r="F401">
-        <v>0</v>
+        <v>0.1616814874696847</v>
       </c>
     </row>
     <row r="402" spans="1:6">
@@ -8498,7 +8498,7 @@
         <v>2017</v>
       </c>
       <c r="C402" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D402">
         <v>0</v>
@@ -8518,7 +8518,7 @@
         <v>2017</v>
       </c>
       <c r="C403" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D403">
         <v>0</v>
@@ -8538,7 +8538,7 @@
         <v>2017</v>
       </c>
       <c r="C404" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D404">
         <v>0</v>
@@ -8558,7 +8558,7 @@
         <v>2017</v>
       </c>
       <c r="C405" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D405">
         <v>0</v>
@@ -9018,16 +9018,16 @@
         <v>2018</v>
       </c>
       <c r="C428" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D428">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E428">
         <v>1238</v>
       </c>
       <c r="F428">
-        <v>0</v>
+        <v>0.08077544426494346</v>
       </c>
     </row>
     <row r="429" spans="1:6">
@@ -9038,16 +9038,16 @@
         <v>2018</v>
       </c>
       <c r="C429" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D429">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E429">
         <v>1238</v>
       </c>
       <c r="F429">
-        <v>0</v>
+        <v>0.08077544426494346</v>
       </c>
     </row>
     <row r="430" spans="1:6">
@@ -9058,7 +9058,7 @@
         <v>2018</v>
       </c>
       <c r="C430" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D430">
         <v>0</v>
@@ -9078,7 +9078,7 @@
         <v>2018</v>
       </c>
       <c r="C431" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D431">
         <v>0</v>
@@ -9098,7 +9098,7 @@
         <v>2018</v>
       </c>
       <c r="C432" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D432">
         <v>0</v>
@@ -9118,7 +9118,7 @@
         <v>2018</v>
       </c>
       <c r="C433" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D433">
         <v>0</v>
